--- a/Assignment5 InspectionReports/pivottable.xlsx
+++ b/Assignment5 InspectionReports/pivottable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\star8\Desktop\Recording\Practice_PCAOB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssdoadmin\Desktop\AIS_RPA_ReferenceSolutions\Assignment5 InspectionReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B305D700-67AC-47AC-943E-9737C9BE1B60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87238517-60B4-4975-BCE7-947D8862D126}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5172" xr2:uid="{53A62C28-95DB-4145-8D7D-9766552439FD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2220" xr2:uid="{D2A58C72-963A-446C-908D-CE738140EFCB}"/>
   </bookViews>
   <sheets>
     <sheet name="PCAOB_Summary" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,70 +47,70 @@
     <t>Revenue and related accounts</t>
   </si>
   <si>
+    <t>Ernst &amp; Young LLP</t>
+  </si>
+  <si>
+    <t>Goodwill and intangible assets</t>
+  </si>
+  <si>
+    <t>Long-lived assets</t>
+  </si>
+  <si>
+    <t>Business combinations</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Marcum LLP</t>
+  </si>
+  <si>
+    <t>Equity and equity-related transactions</t>
+  </si>
+  <si>
+    <t>Investment securities</t>
+  </si>
+  <si>
+    <t>Allowance for credit losses/ Allowance for loan losses</t>
+  </si>
+  <si>
+    <t>Crowe LLP</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Deposit liabilities</t>
+  </si>
+  <si>
+    <t>Moss Adams LLP</t>
+  </si>
+  <si>
+    <t>RSM US LLP</t>
+  </si>
+  <si>
+    <t>BDO USA LLP</t>
+  </si>
+  <si>
+    <t>Going concern</t>
+  </si>
+  <si>
+    <t>Deloitte &amp; Touche LLP</t>
+  </si>
+  <si>
+    <t>Accruals and other liabilities</t>
+  </si>
+  <si>
+    <t>Grant Thornton LLP</t>
+  </si>
+  <si>
     <t>KPMG LLP</t>
   </si>
   <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>Business combinations</t>
-  </si>
-  <si>
-    <t>Accruals and other liabilities</t>
-  </si>
-  <si>
-    <t>Long-lived assets</t>
-  </si>
-  <si>
-    <t>Ernst &amp; Young LLP</t>
-  </si>
-  <si>
-    <t>Debt</t>
-  </si>
-  <si>
-    <t>Grant Thornton LLP</t>
-  </si>
-  <si>
-    <t>Goodwill and intangible assets</t>
-  </si>
-  <si>
-    <t>Baker Tilly US LLP</t>
-  </si>
-  <si>
-    <t>Allowance for loan losses</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents</t>
-  </si>
-  <si>
     <t>PricewaterhouseCoopers LLP</t>
-  </si>
-  <si>
-    <t>Income taxes</t>
-  </si>
-  <si>
-    <t>Marcum LLP</t>
-  </si>
-  <si>
-    <t>Equity and equity-related transactions</t>
-  </si>
-  <si>
-    <t>Investment securities</t>
-  </si>
-  <si>
-    <t>Allowance for credit losses/ Allowance for loan losses</t>
-  </si>
-  <si>
-    <t>Crowe LLP</t>
-  </si>
-  <si>
-    <t>Deloitte &amp; Touche LLP</t>
-  </si>
-  <si>
-    <t>Moss Adams LLP</t>
-  </si>
-  <si>
-    <t>RSM US LLP</t>
   </si>
   <si>
     <t>列標籤</t>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="賴星光星光" refreshedDate="45481.898443171296" createdVersion="1" refreshedVersion="6" recordCount="51" xr:uid="{091E2D57-F8A9-4EA3-BBA5-2B51E8C494FC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ssdoadmin" refreshedDate="45547.361341087963" createdVersion="1" refreshedVersion="6" recordCount="51" xr:uid="{6CA1AEB6-7065-4DD4-A75A-977A5F4A8CA2}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D52" sheet="Sheet1"/>
   </cacheSource>
@@ -210,25 +210,25 @@
     <cacheField name="Audit area" numFmtId="0">
       <sharedItems count="13">
         <s v="Revenue and related accounts"/>
+        <s v="Goodwill and intangible assets"/>
+        <s v="Long-lived assets"/>
+        <s v="Business combinations"/>
         <s v="Inventory"/>
-        <s v="Business combinations"/>
-        <s v="Accruals and other liabilities"/>
-        <s v="Long-lived assets"/>
         <s v="Debt"/>
-        <s v="Goodwill and intangible assets"/>
-        <s v="Allowance for loan losses"/>
-        <s v="Cash and cash equivalents"/>
-        <s v="Income taxes"/>
         <s v="Equity and equity-related transactions"/>
         <s v="Investment securities"/>
         <s v="Allowance for credit losses/ Allowance for loan losses"/>
+        <s v="Cash and cash equivalents"/>
+        <s v="Deposit liabilities"/>
+        <s v="Going concern"/>
+        <s v="Accruals and other liabilities"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Audits reviewed" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="48"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="40"/>
     </cacheField>
     <cacheField name="Audits with Part I.A deficiencies" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="15"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
     </cacheField>
     <cacheField name="Company" numFmtId="0">
       <sharedItems/>
@@ -246,331 +246,331 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="51">
   <r>
     <x v="0"/>
-    <n v="37"/>
+    <n v="40"/>
+    <n v="5"/>
+    <s v="Ernst &amp; Young LLP"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="2"/>
+    <s v="Ernst &amp; Young LLP"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="16"/>
+    <n v="0"/>
+    <s v="Ernst &amp; Young LLP"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <s v="Ernst &amp; Young LLP"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="19"/>
+    <n v="2"/>
+    <s v="Ernst &amp; Young LLP"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="13"/>
+    <n v="1"/>
+    <s v="Ernst &amp; Young LLP"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="15"/>
+    <n v="4"/>
+    <s v="Marcum LLP"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="9"/>
+    <n v="9"/>
+    <s v="Marcum LLP"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="6"/>
+    <n v="0"/>
+    <s v="Marcum LLP"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="8"/>
+    <n v="0"/>
+    <s v="Marcum LLP"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="Marcum LLP"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="10"/>
+    <n v="2"/>
+    <s v="Crowe LLP"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4"/>
+    <n v="0"/>
+    <s v="Crowe LLP"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <s v="Crowe LLP"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="3"/>
+    <n v="0"/>
+    <s v="Crowe LLP"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="Crowe LLP"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="2"/>
+    <s v="Moss Adams LLP"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="1"/>
+    <s v="Moss Adams LLP"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="Moss Adams LLP"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="Moss Adams LLP"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2"/>
+    <n v="0"/>
+    <s v="Moss Adams LLP"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="2"/>
+    <s v="RSM US LLP"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4"/>
+    <n v="0"/>
+    <s v="RSM US LLP"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="RSM US LLP"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="0"/>
+    <s v="RSM US LLP"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="3"/>
+    <n v="0"/>
+    <s v="RSM US LLP"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="17"/>
+    <n v="6"/>
+    <s v="BDO USA LLP"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="0"/>
+    <s v="BDO USA LLP"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="8"/>
+    <n v="1"/>
+    <s v="BDO USA LLP"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="7"/>
+    <n v="2"/>
+    <s v="BDO USA LLP"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="6"/>
+    <n v="0"/>
+    <s v="BDO USA LLP"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="31"/>
+    <n v="1"/>
+    <s v="Deloitte &amp; Touche LLP"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="17"/>
+    <n v="0"/>
+    <s v="Deloitte &amp; Touche LLP"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="14"/>
+    <n v="0"/>
+    <s v="Deloitte &amp; Touche LLP"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="0"/>
+    <s v="Deloitte &amp; Touche LLP"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="12"/>
+    <n v="0"/>
+    <s v="Deloitte &amp; Touche LLP"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="19"/>
+    <n v="5"/>
+    <s v="Grant Thornton LLP"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="10"/>
+    <n v="1"/>
+    <s v="Grant Thornton LLP"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="8"/>
+    <n v="0"/>
+    <s v="Grant Thornton LLP"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="8"/>
+    <n v="0"/>
+    <s v="Grant Thornton LLP"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="7"/>
+    <n v="2"/>
+    <s v="Grant Thornton LLP"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="32"/>
     <n v="6"/>
     <s v="KPMG LLP"/>
   </r>
   <r>
+    <x v="2"/>
+    <n v="15"/>
+    <n v="1"/>
+    <s v="KPMG LLP"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="12"/>
+    <n v="0"/>
+    <s v="KPMG LLP"/>
+  </r>
+  <r>
     <x v="1"/>
-    <n v="16"/>
-    <n v="2"/>
+    <n v="11"/>
+    <n v="1"/>
     <s v="KPMG LLP"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="11"/>
+    <n v="0"/>
+    <s v="KPMG LLP"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="36"/>
+    <n v="0"/>
+    <s v="PricewaterhouseCoopers LLP"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="0"/>
+    <s v="PricewaterhouseCoopers LLP"/>
   </r>
   <r>
     <x v="2"/>
     <n v="13"/>
     <n v="1"/>
-    <s v="KPMG LLP"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="12"/>
-    <n v="1"/>
-    <s v="KPMG LLP"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="11"/>
-    <n v="1"/>
-    <s v="KPMG LLP"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="42"/>
-    <n v="15"/>
-    <s v="Ernst &amp; Young LLP"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="26"/>
-    <n v="4"/>
-    <s v="Ernst &amp; Young LLP"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="12"/>
-    <n v="4"/>
-    <s v="Ernst &amp; Young LLP"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="10"/>
-    <n v="1"/>
-    <s v="Ernst &amp; Young LLP"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="10"/>
-    <n v="0"/>
-    <s v="Ernst &amp; Young LLP"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="21"/>
-    <n v="7"/>
-    <s v="Grant Thornton LLP"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="8"/>
-    <n v="1"/>
-    <s v="Grant Thornton LLP"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="6"/>
-    <n v="1"/>
-    <s v="Grant Thornton LLP"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="5"/>
-    <n v="1"/>
-    <s v="Grant Thornton LLP"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <s v="Grant Thornton LLP"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="8"/>
-    <n v="6"/>
-    <s v="Baker Tilly US LLP"/>
+    <s v="PricewaterhouseCoopers LLP"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="2"/>
-    <n v="2"/>
-    <s v="Baker Tilly US LLP"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="3"/>
-    <n v="0"/>
-    <s v="Baker Tilly US LLP"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <s v="Baker Tilly US LLP"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="3"/>
-    <n v="0"/>
-    <s v="Baker Tilly US LLP"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="2"/>
-    <n v="2"/>
-    <s v="Baker Tilly US LLP"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="48"/>
+    <n v="13"/>
     <n v="0"/>
     <s v="PricewaterhouseCoopers LLP"/>
   </r>
   <r>
-    <x v="2"/>
-    <n v="24"/>
-    <n v="2"/>
+    <x v="9"/>
+    <n v="13"/>
+    <n v="0"/>
     <s v="PricewaterhouseCoopers LLP"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="14"/>
-    <n v="1"/>
-    <s v="PricewaterhouseCoopers LLP"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="12"/>
-    <n v="1"/>
-    <s v="PricewaterhouseCoopers LLP"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="10"/>
-    <n v="0"/>
-    <s v="PricewaterhouseCoopers LLP"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="16"/>
-    <n v="6"/>
-    <s v="Marcum LLP"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="11"/>
-    <n v="8"/>
-    <s v="Marcum LLP"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="9"/>
-    <n v="1"/>
-    <s v="Marcum LLP"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="7"/>
-    <n v="0"/>
-    <s v="Marcum LLP"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="4"/>
-    <n v="3"/>
-    <s v="Marcum LLP"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <n v="11"/>
-    <n v="0"/>
-    <s v="Crowe LLP"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="7"/>
-    <n v="0"/>
-    <s v="Crowe LLP"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="0"/>
-    <s v="Crowe LLP"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="3"/>
-    <n v="1"/>
-    <s v="Crowe LLP"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2"/>
-    <n v="1"/>
-    <s v="Crowe LLP"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="44"/>
-    <n v="3"/>
-    <s v="Deloitte &amp; Touche LLP"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="18"/>
-    <n v="0"/>
-    <s v="Deloitte &amp; Touche LLP"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="14"/>
-    <n v="1"/>
-    <s v="Deloitte &amp; Touche LLP"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="8"/>
-    <n v="0"/>
-    <s v="Deloitte &amp; Touche LLP"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="6"/>
-    <n v="3"/>
-    <s v="Deloitte &amp; Touche LLP"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="6"/>
-    <n v="3"/>
-    <s v="Moss Adams LLP"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="0"/>
-    <s v="Moss Adams LLP"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="3"/>
-    <n v="0"/>
-    <s v="Moss Adams LLP"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="3"/>
-    <n v="1"/>
-    <s v="Moss Adams LLP"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="2"/>
-    <n v="1"/>
-    <s v="Moss Adams LLP"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="13"/>
-    <n v="1"/>
-    <s v="RSM US LLP"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="7"/>
-    <n v="3"/>
-    <s v="RSM US LLP"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="3"/>
-    <n v="0"/>
-    <s v="RSM US LLP"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <n v="2"/>
-    <n v="0"/>
-    <s v="RSM US LLP"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="0"/>
-    <s v="RSM US LLP"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C250D3EF-195C-42F3-B9BA-1F08EF54E68F}" name="PCAOB_Summary" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="資料" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FBAC9067-5171-4C57-962C-867E5883C3A6}" name="PCAOB_Summary" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="資料" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
   <location ref="A1:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
       <items count="14">
+        <item x="12"/>
+        <item x="8"/>
         <item x="3"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="8"/>
+        <item x="9"/>
         <item x="5"/>
         <item x="10"/>
         <item x="6"/>
-        <item x="9"/>
+        <item x="11"/>
         <item x="1"/>
-        <item x="11"/>
         <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -976,12 +976,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A06D63E-3223-421B-AE28-FAC9C517B0B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3437A6D-DB79-4711-A558-40A7C23E8AD3}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1007,170 +1005,170 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>48</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>7</v>
-      </c>
-      <c r="B5" s="3">
-        <v>118</v>
-      </c>
-      <c r="C5" s="3">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="C13" s="3">
         <v>4</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1178,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="3">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="C14" s="3">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3">
         <v>10</v>
@@ -1192,10 +1190,10 @@
         <v>28</v>
       </c>
       <c r="B15" s="3">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C15" s="3">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D15" s="3">
         <v>51</v>
@@ -1208,17 +1206,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8A8351-4DBE-4870-98DF-B95F3B32B193}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C8B461-A2FF-4914-8A20-A9D60FA81D23}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="49.44140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1239,10 +1232,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1253,7 +1246,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1267,10 +1260,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -1281,10 +1274,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -1295,10 +1288,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -1306,133 +1299,133 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="B12">
-        <v>21</v>
-      </c>
       <c r="C12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1441,91 +1434,91 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
         <v>6</v>
       </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1533,69 +1526,69 @@
         <v>4</v>
       </c>
       <c r="B23">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1603,139 +1596,139 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>7</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
         <v>22</v>
-      </c>
-      <c r="B33">
-        <v>11</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1743,10 +1736,10 @@
         <v>4</v>
       </c>
       <c r="B38">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
         <v>24</v>
@@ -1757,10 +1750,10 @@
         <v>7</v>
       </c>
       <c r="B39">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
@@ -1768,13 +1761,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -1782,7 +1775,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -1799,10 +1792,10 @@
         <v>9</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
@@ -1813,10 +1806,10 @@
         <v>4</v>
       </c>
       <c r="B43">
+        <v>32</v>
+      </c>
+      <c r="C43">
         <v>6</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
@@ -1827,10 +1820,10 @@
         <v>7</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
@@ -1838,10 +1831,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1855,7 +1848,7 @@
         <v>6</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1869,10 +1862,10 @@
         <v>16</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>25</v>
@@ -1883,10 +1876,10 @@
         <v>4</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
         <v>26</v>
@@ -1894,13 +1887,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D49" t="s">
         <v>26</v>
@@ -1908,13 +1901,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
         <v>26</v>
@@ -1922,10 +1915,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1936,10 +1929,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1955,7 +1948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F5D46D-B01B-4D7C-B9E8-F3545E6D6D32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BC3BFD-5FE3-4B0F-B2A5-6E21559E1D74}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
